--- a/inst/extdata/change_factors.xlsx
+++ b/inst/extdata/change_factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taner\OneDrive - Stichting Deltares\_WS\GITHUB\gridwegen\inst\exdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taner\OneDrive - Stichting Deltares\_WS\GITHUB\gridwegen\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97C1F5-1B5F-425B-9955-A16A35D48C3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3574D-695F-429D-8C69-CA66E12F592F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="25056" windowHeight="16632" xr2:uid="{45243537-495C-49A4-846A-15F9E6916910}"/>
+    <workbookView xWindow="22516" yWindow="0" windowWidth="22517" windowHeight="18236" xr2:uid="{45243537-495C-49A4-846A-15F9E6916910}"/>
   </bookViews>
   <sheets>
     <sheet name="par1" sheetId="1" r:id="rId1"/>
@@ -5118,15 +5118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>5542</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>45027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>119842</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5573,10 +5573,10 @@
   <dimension ref="A3:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
     <col min="2" max="4" width="11" style="4" customWidth="1"/>
@@ -6015,7 +6015,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
     <col min="2" max="4" width="11" style="4" customWidth="1"/>
